--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PFavatoBarcelos\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69029CA0-07F0-41FD-9ED8-DEAFC191A694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C116E27C-EB00-4245-B110-650BAA23E426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
+    <workbookView xWindow="5280" yWindow="5280" windowWidth="28800" windowHeight="15460" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>#</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>007 + diagram on package's package</t>
+  </si>
+  <si>
+    <t>class in two different diagrams</t>
   </si>
 </sst>
 </file>
@@ -191,26 +194,6 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -253,6 +236,26 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -268,26 +271,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I9" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I9" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:I9" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{B2169228-FA5D-41A3-ABA5-DC9D70D992D5}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="6">
       <calculatedColumnFormula>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="5">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".vpp"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="4">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".json"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="3">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -593,19 +596,19 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="61.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="73.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="61.54296875" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" hidden="1" customWidth="1"/>
+    <col min="4" max="8" width="15.7265625" customWidth="1"/>
+    <col min="9" max="9" width="73.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -634,7 +637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -667,7 +670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -700,7 +703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -733,7 +736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -763,7 +766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -793,7 +796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -823,7 +826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -853,7 +856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -883,37 +886,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:H9">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PFavatoBarcelos\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C116E27C-EB00-4245-B110-650BAA23E426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697BA1DB-49DE-4F72-8E0B-7F8669D09CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="5280" windowWidth="28800" windowHeight="15460" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>#</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>class in two different diagrams</t>
+  </si>
+  <si>
+    <t>test multiple projects in a single JSON file</t>
+  </si>
+  <si>
+    <t>adds diagrams inside different ModelElements</t>
   </si>
 </sst>
 </file>
@@ -596,19 +602,19 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="61.54296875" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" hidden="1" customWidth="1"/>
-    <col min="4" max="8" width="15.7265625" customWidth="1"/>
-    <col min="9" max="9" width="73.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="73.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -637,7 +643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -670,7 +676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -703,7 +709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -736,7 +742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -766,7 +772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -796,7 +802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -826,7 +832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -856,7 +862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -886,32 +892,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>11</v>
       </c>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PFavatoBarcelos\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697BA1DB-49DE-4F72-8E0B-7F8669D09CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB54A3BE-EDA0-42DA-BDDA-436D34088089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -68,12 +68,6 @@
     <t>Project only.</t>
   </si>
   <si>
-    <t>Project, package, and two diagrams inside package.</t>
-  </si>
-  <si>
-    <t>Project, package, and two diagrams outside package.</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
     <t>It is possible to create by creating an empy Project using the ontouml-vp-plugin.</t>
   </si>
   <si>
-    <t>Project and two diagrams only (with no package).</t>
-  </si>
-  <si>
     <t>Project, vpp model and vpp package.</t>
   </si>
   <si>
@@ -120,6 +111,18 @@
   </si>
   <si>
     <t>adds diagrams inside different ModelElements</t>
+  </si>
+  <si>
+    <t>008 + class inside diagram</t>
+  </si>
+  <si>
+    <t>009 + diagram inside class</t>
+  </si>
+  <si>
+    <t>010 + class inside diagram that is inside class</t>
+  </si>
+  <si>
+    <t>011 + class outside diagram</t>
   </si>
 </sst>
 </file>
@@ -180,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -194,11 +197,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -243,26 +267,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -277,26 +281,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I9" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:I9" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I13" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A1:I13" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{B2169228-FA5D-41A3-ABA5-DC9D70D992D5}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="6">
+    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="8">
       <calculatedColumnFormula>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="5">
+    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="7">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".vpp"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="6">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".json"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="5">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -599,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BB1B56-C601-4BA2-9A5D-7647C7ECF9E4}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +644,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -648,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -667,13 +671,13 @@
         <v>test_001.ttl</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -700,13 +704,13 @@
         <v>test_002.ttl</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -714,7 +718,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -733,13 +737,13 @@
         <v>test_003.ttl</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -747,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -777,7 +781,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -807,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -837,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -867,82 +871,181 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_008</v>
+      </c>
+      <c r="D9" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_008.vpp</v>
+      </c>
+      <c r="E9" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_008.json</v>
+      </c>
+      <c r="F9" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_008.ttl</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_009</v>
+      </c>
+      <c r="D10" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_009.vpp</v>
+      </c>
+      <c r="E10" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_009.json</v>
+      </c>
+      <c r="F10" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_009.ttl</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_010</v>
+      </c>
+      <c r="D11" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_010.vpp</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_010.json</v>
+      </c>
+      <c r="F11" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_010.ttl</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_011</v>
+      </c>
+      <c r="D12" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_011.vpp</v>
+      </c>
+      <c r="E12" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_011.json</v>
+      </c>
+      <c r="F12" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_011.ttl</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_012</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_012.vpp</v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_012.json</v>
+      </c>
+      <c r="F13" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_012.ttl</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="str">
-        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
-        <v>test_008</v>
-      </c>
-      <c r="D9" t="str">
-        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
-        <v>test_008.vpp</v>
-      </c>
-      <c r="E9" t="str">
-        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
-        <v>test_008.json</v>
-      </c>
-      <c r="F9" t="str">
-        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
-        <v>test_008.ttl</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:H9">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+  <conditionalFormatting sqref="G2:H13">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H9" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H13" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
       <formula1>"Done,TBD"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PFavatoBarcelos\Dev\Work\ontouml-json2graph\tests\test_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB54A3BE-EDA0-42DA-BDDA-436D34088089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82A6DA5-F16C-4D39-83A2-D1C45FDDFC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
@@ -183,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,12 +197,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -281,33 +300,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I13" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I13" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:I13" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{B2169228-FA5D-41A3-ABA5-DC9D70D992D5}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="10">
       <calculatedColumnFormula>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="9">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".vpp"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="8">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".json"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="7">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -603,16 +622,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BB1B56-C601-4BA2-9A5D-7647C7ECF9E4}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="61.5703125" customWidth="1"/>
+    <col min="2" max="2" width="68.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" hidden="1" customWidth="1"/>
     <col min="4" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="73.5703125" bestFit="1" customWidth="1"/>
@@ -903,29 +922,28 @@
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="5" t="str">
+      <c r="C10" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_009</v>
       </c>
-      <c r="D10" s="5" t="str">
+      <c r="D10" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_009.vpp</v>
       </c>
-      <c r="E10" s="5" t="str">
+      <c r="E10" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_009.json</v>
       </c>
-      <c r="F10" s="5" t="str">
+      <c r="F10" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_009.ttl</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="5"/>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -934,29 +952,28 @@
       <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="5" t="str">
+      <c r="C11" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_010</v>
       </c>
-      <c r="D11" s="5" t="str">
+      <c r="D11" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_010.vpp</v>
       </c>
-      <c r="E11" s="5" t="str">
+      <c r="E11" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_010.json</v>
       </c>
-      <c r="F11" s="5" t="str">
+      <c r="F11" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_010.ttl</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="5"/>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -965,29 +982,28 @@
       <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="5" t="str">
+      <c r="C12" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_011</v>
       </c>
-      <c r="D12" s="5" t="str">
+      <c r="D12" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_011.vpp</v>
       </c>
-      <c r="E12" s="5" t="str">
+      <c r="E12" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_011.json</v>
       </c>
-      <c r="F12" s="5" t="str">
+      <c r="F12" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_011.ttl</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="5"/>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -996,42 +1012,41 @@
       <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5" t="str">
+      <c r="C13" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_012</v>
       </c>
-      <c r="D13" s="5" t="str">
+      <c r="D13" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_012.vpp</v>
       </c>
-      <c r="E13" s="5" t="str">
+      <c r="E13" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_012.json</v>
       </c>
-      <c r="F13" s="5" t="str">
+      <c r="F13" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_012.ttl</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="5"/>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1050,7 +1065,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82A6DA5-F16C-4D39-83A2-D1C45FDDFC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA67DC9-37E8-489D-90F0-DDE1C466B845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -123,6 +112,12 @@
   </si>
   <si>
     <t>011 + class outside diagram</t>
+  </si>
+  <si>
+    <t>same class twice in the same diagram</t>
+  </si>
+  <si>
+    <t>012 + multiple classes of stereotype type and collective</t>
   </si>
 </sst>
 </file>
@@ -183,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,6 +192,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -300,8 +296,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I13" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:I13" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I14" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:I14" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{B2169228-FA5D-41A3-ABA5-DC9D70D992D5}" name="Description"/>
@@ -622,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BB1B56-C601-4BA2-9A5D-7647C7ECF9E4}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,10 +785,10 @@
         <v>test_004.ttl</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -819,10 +815,10 @@
         <v>test_005.ttl</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -849,10 +845,10 @@
         <v>test_006.ttl</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -879,10 +875,10 @@
         <v>test_007.ttl</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -909,10 +905,10 @@
         <v>test_008.ttl</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -939,10 +935,10 @@
         <v>test_009.ttl</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1035,32 +1031,68 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_013</v>
+      </c>
+      <c r="D14" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_013.vpp</v>
+      </c>
+      <c r="E14" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_013.json</v>
+      </c>
+      <c r="F14" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_013.ttl</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:H13">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="G2:H14">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H13" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H14" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
       <formula1>"Done,TBD"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA67DC9-37E8-489D-90F0-DDE1C466B845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEE9339-AF0B-4997-8E70-761F85BB45BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -51,9 +51,6 @@
     <t>graph2json</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>Project only.</t>
   </si>
   <si>
@@ -118,6 +115,12 @@
   </si>
   <si>
     <t>012 + multiple classes of stereotype type and collective</t>
+  </si>
+  <si>
+    <t>014 + examples of classes non-collective with isExtensional true</t>
+  </si>
+  <si>
+    <t>013 + classes with multiple stereotypes</t>
   </si>
 </sst>
 </file>
@@ -178,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -192,12 +195,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -296,26 +320,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I14" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:I14" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I16" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="A1:I16" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{B2169228-FA5D-41A3-ABA5-DC9D70D992D5}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="12">
       <calculatedColumnFormula>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="11">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".vpp"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="10">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".json"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="7">
+    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="9">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -621,7 +645,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -667,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -686,13 +710,13 @@
         <v>test_001.ttl</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -700,7 +724,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -719,13 +743,13 @@
         <v>test_002.ttl</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -733,32 +757,32 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_003</v>
+      </c>
+      <c r="D4" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_003.vpp</v>
+      </c>
+      <c r="E4" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_003.json</v>
+      </c>
+      <c r="F4" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_003.ttl</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="str">
-        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
-        <v>test_003</v>
-      </c>
-      <c r="D4" t="str">
-        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
-        <v>test_003.vpp</v>
-      </c>
-      <c r="E4" t="str">
-        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
-        <v>test_003.json</v>
-      </c>
-      <c r="F4" t="str">
-        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
-        <v>test_003.ttl</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -766,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -785,10 +809,10 @@
         <v>test_004.ttl</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -796,7 +820,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -815,10 +839,10 @@
         <v>test_005.ttl</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -826,7 +850,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -845,10 +869,10 @@
         <v>test_006.ttl</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -856,7 +880,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -875,10 +899,10 @@
         <v>test_007.ttl</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -886,7 +910,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -905,10 +929,10 @@
         <v>test_008.ttl</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -916,7 +940,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -934,11 +958,11 @@
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_009.ttl</v>
       </c>
-      <c r="G10" t="s">
-        <v>10</v>
+      <c r="G10" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -946,7 +970,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -965,10 +989,10 @@
         <v>test_010.ttl</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -976,7 +1000,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -995,10 +1019,10 @@
         <v>test_011.ttl</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1006,7 +1030,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1025,10 +1049,10 @@
         <v>test_012.ttl</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1036,63 +1060,124 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_013</v>
+      </c>
+      <c r="D14" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_013.vpp</v>
+      </c>
+      <c r="E14" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_013.json</v>
+      </c>
+      <c r="F14" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_013.ttl</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="6" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_014</v>
+      </c>
+      <c r="D15" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_014.vpp</v>
+      </c>
+      <c r="E15" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_014.json</v>
+      </c>
+      <c r="F15" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_014.ttl</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="5" t="str">
-        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
-        <v>test_013</v>
-      </c>
-      <c r="D14" s="5" t="str">
-        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
-        <v>test_013.vpp</v>
-      </c>
-      <c r="E14" s="5" t="str">
-        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
-        <v>test_013.json</v>
-      </c>
-      <c r="F14" s="5" t="str">
-        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
-        <v>test_013.ttl</v>
-      </c>
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="5"/>
+      <c r="C16" s="6" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_015</v>
+      </c>
+      <c r="D16" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_015.vpp</v>
+      </c>
+      <c r="E16" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_015.json</v>
+      </c>
+      <c r="F16" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_015.ttl</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="6"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:H14">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="G2:H16">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H14" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H16" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
       <formula1>"Done,TBD"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEE9339-AF0B-4997-8E70-761F85BB45BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B74F9D1-F6FA-4790-997D-4DFE2F9032F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>#</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>013 + classes with multiple stereotypes</t>
+  </si>
+  <si>
+    <t>015 + examples of classes unaligned isPowertype and stereotype</t>
   </si>
 </sst>
 </file>
@@ -201,7 +204,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -320,26 +333,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I16" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="A1:I16" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I17" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="A1:I17" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{B2169228-FA5D-41A3-ABA5-DC9D70D992D5}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="13">
       <calculatedColumnFormula>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="12">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".vpp"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="10">
+    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="11">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".json"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="9">
+    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="10">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -645,7 +658,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,9 +725,6 @@
       <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
       <c r="I2" t="s">
         <v>15</v>
       </c>
@@ -745,9 +755,6 @@
       <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
@@ -778,9 +785,6 @@
       <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
@@ -811,9 +815,6 @@
       <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -841,9 +842,6 @@
       <c r="G6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -871,9 +869,6 @@
       <c r="G7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -901,9 +896,6 @@
       <c r="G8" t="s">
         <v>9</v>
       </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -931,9 +923,6 @@
       <c r="G9" t="s">
         <v>9</v>
       </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -958,10 +947,7 @@
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_009.ttl</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -991,9 +977,6 @@
       <c r="G11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1021,9 +1004,6 @@
       <c r="G12" t="s">
         <v>9</v>
       </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1051,9 +1031,6 @@
       <c r="G13" t="s">
         <v>9</v>
       </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1081,40 +1058,33 @@
       <c r="G14" t="s">
         <v>9</v>
       </c>
-      <c r="H14" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="6" t="str">
+      <c r="C15" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_014</v>
       </c>
-      <c r="D15" s="6" t="str">
+      <c r="D15" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_014.vpp</v>
       </c>
-      <c r="E15" s="6" t="str">
+      <c r="E15" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_014.json</v>
       </c>
-      <c r="F15" s="6" t="str">
+      <c r="F15" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_014.ttl</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1123,31 +1093,55 @@
       <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="6" t="str">
+      <c r="C16" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_015</v>
       </c>
-      <c r="D16" s="6" t="str">
+      <c r="D16" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_015.vpp</v>
       </c>
-      <c r="E16" s="6" t="str">
+      <c r="E16" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_015.json</v>
       </c>
-      <c r="F16" s="6" t="str">
+      <c r="F16" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_015.ttl</v>
       </c>
       <c r="G16" t="s">
         <v>9</v>
       </c>
-      <c r="H16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="6" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_016</v>
+      </c>
+      <c r="D17" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_016.vpp</v>
+      </c>
+      <c r="E17" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_016.json</v>
+      </c>
+      <c r="F17" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_016.ttl</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>21</v>
       </c>
@@ -1168,16 +1162,19 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:H16">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="G2:H17">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A17">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H16" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H17" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
       <formula1>"Done,TBD"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B74F9D1-F6FA-4790-997D-4DFE2F9032F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC3715F-F42E-4122-97AD-DB5A9AA2820A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>015 + examples of classes unaligned isPowertype and stereotype</t>
+  </si>
+  <si>
+    <t>016 + examples of constraints B and C of validate_class_constraints</t>
   </si>
 </sst>
 </file>
@@ -184,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,13 +201,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -217,16 +229,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -252,16 +254,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -333,26 +325,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I17" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="A1:I17" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I18" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="A1:I18" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{B2169228-FA5D-41A3-ABA5-DC9D70D992D5}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="13">
+    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="12">
       <calculatedColumnFormula>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="12">
+    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="11">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".vpp"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="10">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".json"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="9">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -658,7 +650,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,26 +1112,54 @@
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="6" t="str">
+      <c r="C17" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_016</v>
       </c>
-      <c r="D17" s="6" t="str">
+      <c r="D17" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_016.vpp</v>
       </c>
-      <c r="E17" s="6" t="str">
+      <c r="E17" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_016.json</v>
       </c>
-      <c r="F17" s="6" t="str">
+      <c r="F17" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_016.ttl</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="6"/>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_017</v>
+      </c>
+      <c r="D18" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_017.vpp</v>
+      </c>
+      <c r="E18" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_017.json</v>
+      </c>
+      <c r="F18" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_017.ttl</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -1162,7 +1182,10 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:H17">
+  <conditionalFormatting sqref="A2:A18">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:H18">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
@@ -1170,11 +1193,8 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A17">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H17" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H18" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
       <formula1>"Done,TBD"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC3715F-F42E-4122-97AD-DB5A9AA2820A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C649BCB-B9ED-4445-8E79-F1BAF4AB74DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -90,9 +90,6 @@
     <t>007 + diagram on package's package</t>
   </si>
   <si>
-    <t>class in two different diagrams</t>
-  </si>
-  <si>
     <t>test multiple projects in a single JSON file</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>011 + class outside diagram</t>
   </si>
   <si>
-    <t>same class twice in the same diagram</t>
-  </si>
-  <si>
     <t>012 + multiple classes of stereotype type and collective</t>
   </si>
   <si>
@@ -127,6 +121,12 @@
   </si>
   <si>
     <t>016 + examples of constraints B and C of validate_class_constraints</t>
+  </si>
+  <si>
+    <t>Same class in two different diagrams</t>
+  </si>
+  <si>
+    <t>018 + same class twice in the same diagram</t>
   </si>
 </sst>
 </file>
@@ -187,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -202,11 +202,42 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -325,26 +356,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I18" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="A1:I18" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I20" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:I20" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{B2169228-FA5D-41A3-ABA5-DC9D70D992D5}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="15">
       <calculatedColumnFormula>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="14">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".vpp"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="10">
+    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="13">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".json"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="9">
+    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="12">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -647,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BB1B56-C601-4BA2-9A5D-7647C7ECF9E4}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +952,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -948,7 +979,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -975,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1002,7 +1033,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1029,7 +1060,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1056,7 +1087,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1083,7 +1114,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1110,7 +1141,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1137,64 +1168,110 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_017</v>
+      </c>
+      <c r="D18" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_017.vpp</v>
+      </c>
+      <c r="E18" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_017.json</v>
+      </c>
+      <c r="F18" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_017.ttl</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_018</v>
+      </c>
+      <c r="D19" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_018.vpp</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_018.json</v>
+      </c>
+      <c r="F19" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_018.ttl</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="5" t="str">
-        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
-        <v>test_017</v>
-      </c>
-      <c r="D18" s="5" t="str">
-        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
-        <v>test_017.vpp</v>
-      </c>
-      <c r="E18" s="5" t="str">
-        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
-        <v>test_017.json</v>
-      </c>
-      <c r="F18" s="5" t="str">
-        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
-        <v>test_017.ttl</v>
-      </c>
-      <c r="G18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>21</v>
-      </c>
+      <c r="C20" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_019</v>
+      </c>
+      <c r="D20" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_019.vpp</v>
+      </c>
+      <c r="E20" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_019.json</v>
+      </c>
+      <c r="F20" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_019.ttl</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A18">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  <conditionalFormatting sqref="A2:A20">
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H18">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+  <conditionalFormatting sqref="G2:H20">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H18" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H20" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
       <formula1>"Done,TBD"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C649BCB-B9ED-4445-8E79-F1BAF4AB74DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E24F5B-E551-462C-97F1-C94EA322FB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>#</t>
   </si>
@@ -127,6 +127,24 @@
   </si>
   <si>
     <t>018 + same class twice in the same diagram</t>
+  </si>
+  <si>
+    <t>020 + added class attributes of diverse types</t>
+  </si>
+  <si>
+    <t>019 + added class attributes</t>
+  </si>
+  <si>
+    <t>021 + added class attributes with diverse multiplicities</t>
+  </si>
+  <si>
+    <t>022 + multiple different properties for attributes</t>
+  </si>
+  <si>
+    <t>add generalization</t>
+  </si>
+  <si>
+    <t>add relation</t>
   </si>
 </sst>
 </file>
@@ -136,7 +154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +173,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -187,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,11 +229,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -356,26 +443,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I20" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:I20" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I24" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:I24" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{B2169228-FA5D-41A3-ABA5-DC9D70D992D5}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="15">
+    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="21">
       <calculatedColumnFormula>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="14">
+    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="20">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".vpp"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="13">
+    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="19">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".json"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="12">
+    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="18">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -678,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BB1B56-C601-4BA2-9A5D-7647C7ECF9E4}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,27 +1284,25 @@
       <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="5" t="str">
+      <c r="C19" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_018</v>
       </c>
-      <c r="D19" s="5" t="str">
+      <c r="D19" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_018.vpp</v>
       </c>
-      <c r="E19" s="5" t="str">
+      <c r="E19" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_018.json</v>
       </c>
-      <c r="F19" s="5" t="str">
+      <c r="F19" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_018.ttl</v>
       </c>
       <c r="G19" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1226,27 +1311,133 @@
       <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="5" t="str">
+      <c r="C20" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_019</v>
       </c>
-      <c r="D20" s="6" t="str">
+      <c r="D20" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_019.vpp</v>
       </c>
-      <c r="E20" s="5" t="str">
+      <c r="E20" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_019.json</v>
       </c>
-      <c r="F20" s="6" t="str">
+      <c r="F20" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_019.ttl</v>
       </c>
       <c r="G20" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_020</v>
+      </c>
+      <c r="D21" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_020.vpp</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_020.json</v>
+      </c>
+      <c r="F21" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_020.ttl</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_021</v>
+      </c>
+      <c r="D22" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_021.vpp</v>
+      </c>
+      <c r="E22" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_021.json</v>
+      </c>
+      <c r="F22" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_021.ttl</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_022</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_022.vpp</v>
+      </c>
+      <c r="E23" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_022.json</v>
+      </c>
+      <c r="F23" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_022.ttl</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_023</v>
+      </c>
+      <c r="D24" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_023.vpp</v>
+      </c>
+      <c r="E24" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_023.json</v>
+      </c>
+      <c r="F24" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_023.ttl</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
@@ -1258,20 +1449,33 @@
         <v>22</v>
       </c>
     </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="7"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A20">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+  <conditionalFormatting sqref="A2:A24">
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H20">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+  <conditionalFormatting sqref="G2:H24">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H20" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H24" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
       <formula1>"Done,TBD"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E24F5B-E551-462C-97F1-C94EA322FB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F8B835-3FAB-47BC-94A8-18594F19E7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>#</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>add relation</t>
+  </si>
+  <si>
+    <t>add enumerations</t>
   </si>
 </sst>
 </file>
@@ -154,7 +157,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,14 +176,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -213,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -227,134 +222,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -443,26 +316,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I24" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I24" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:I24" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{B2169228-FA5D-41A3-ABA5-DC9D70D992D5}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="21">
+    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="9">
       <calculatedColumnFormula>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="20">
+    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="8">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".vpp"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="19">
+    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="7">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".json"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="18">
+    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="6">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -768,7 +641,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,7 +1096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1250,7 +1123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1277,7 +1150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1304,7 +1177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1331,116 +1204,113 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="5" t="str">
+      <c r="C21" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_020</v>
       </c>
-      <c r="D21" s="5" t="str">
+      <c r="D21" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_020.vpp</v>
       </c>
-      <c r="E21" s="5" t="str">
+      <c r="E21" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_020.json</v>
       </c>
-      <c r="F21" s="5" t="str">
+      <c r="F21" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_020.ttl</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="5" t="str">
+      <c r="C22" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_021</v>
       </c>
-      <c r="D22" s="5" t="str">
+      <c r="D22" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_021.vpp</v>
       </c>
-      <c r="E22" s="5" t="str">
+      <c r="E22" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_021.json</v>
       </c>
-      <c r="F22" s="5" t="str">
+      <c r="F22" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_021.ttl</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="5" t="str">
+      <c r="C23" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_022</v>
       </c>
-      <c r="D23" s="5" t="str">
+      <c r="D23" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_022.vpp</v>
       </c>
-      <c r="E23" s="5" t="str">
+      <c r="E23" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_022.json</v>
       </c>
-      <c r="F23" s="5" t="str">
+      <c r="F23" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_022.ttl</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="5" t="str">
+      <c r="C24" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_023</v>
       </c>
-      <c r="D24" s="5" t="str">
+      <c r="D24" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_023.vpp</v>
       </c>
-      <c r="E24" s="5" t="str">
+      <c r="E24" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_023.json</v>
       </c>
-      <c r="F24" s="5" t="str">
+      <c r="F24" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_023.ttl</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1451,26 +1321,28 @@
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A24">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H24">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F8B835-3FAB-47BC-94A8-18594F19E7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9921A52-0563-4F09-8823-04049C217963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>#</t>
   </si>
@@ -90,12 +90,6 @@
     <t>007 + diagram on package's package</t>
   </si>
   <si>
-    <t>test multiple projects in a single JSON file</t>
-  </si>
-  <si>
-    <t>adds diagrams inside different ModelElements</t>
-  </si>
-  <si>
     <t>008 + class inside diagram</t>
   </si>
   <si>
@@ -148,6 +142,21 @@
   </si>
   <si>
     <t>add enumerations</t>
+  </si>
+  <si>
+    <t>add subsets and redefines to properties</t>
+  </si>
+  <si>
+    <t>add stereotypes for properties</t>
+  </si>
+  <si>
+    <t>add text box, notes, and comments</t>
+  </si>
+  <si>
+    <t>023 + added attributes's stereotypes (single, valid, invalid, multiple, etc.) and meta-properties</t>
+  </si>
+  <si>
+    <t>024 + added text boxes, notes and elements' comments</t>
   </si>
 </sst>
 </file>
@@ -208,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,11 +232,72 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -316,26 +386,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I24" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="A1:I24" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I26" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:I26" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{B2169228-FA5D-41A3-ABA5-DC9D70D992D5}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="9">
+    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="15">
       <calculatedColumnFormula>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="14">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".vpp"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="13">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".json"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="12">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -638,22 +708,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BB1B56-C601-4BA2-9A5D-7647C7ECF9E4}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="68.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="73.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="68.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" hidden="1" customWidth="1"/>
+    <col min="4" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="73.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -682,7 +752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -712,7 +782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -742,7 +812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -772,7 +842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -799,7 +869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -826,7 +896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -853,7 +923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -880,7 +950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -907,12 +977,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -934,12 +1004,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -961,12 +1031,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -988,12 +1058,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1015,12 +1085,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1042,12 +1112,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1069,12 +1139,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1096,12 +1166,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1123,12 +1193,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1150,12 +1220,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1177,12 +1247,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1204,12 +1274,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1231,12 +1301,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1258,12 +1328,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1281,16 +1351,16 @@
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_022.ttl</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1308,46 +1378,108 @@
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_023.ttl</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="G24" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="6" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_024</v>
+      </c>
+      <c r="D25" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_024.vpp</v>
+      </c>
+      <c r="E25" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_024.json</v>
+      </c>
+      <c r="F25" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_024.ttl</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="6" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_025</v>
+      </c>
+      <c r="D26" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_025.vpp</v>
+      </c>
+      <c r="E26" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_025.json</v>
+      </c>
+      <c r="F26" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_025.ttl</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A24">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="A2:A26">
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H24">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="G2:H26">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H24" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H26" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
       <formula1>"Done,TBD"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9921A52-0563-4F09-8823-04049C217963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5042CFCA-7A0C-470A-9782-9908781A04B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>024 + added text boxes, notes and elements' comments</t>
+  </si>
+  <si>
+    <t>enumeration, abstract and datatype</t>
+  </si>
+  <si>
+    <t>026 + added enum literals, operations and attributes for datatype and abstract</t>
+  </si>
+  <si>
+    <t>027 + diverse different generalizations</t>
+  </si>
+  <si>
+    <t>027 + diverse different generalization sets</t>
   </si>
 </sst>
 </file>
@@ -237,7 +249,67 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -386,26 +458,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I26" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:I26" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I30" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:I30" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{B2169228-FA5D-41A3-ABA5-DC9D70D992D5}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="15">
+    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="21">
       <calculatedColumnFormula>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="14">
+    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="20">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".vpp"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="13">
+    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="19">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".json"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="12">
+    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="18">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -711,7 +783,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1378,7 +1450,7 @@
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_023.ttl</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1389,25 +1461,25 @@
       <c r="B25" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="6" t="str">
+      <c r="C25" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_024</v>
       </c>
-      <c r="D25" s="6" t="str">
+      <c r="D25" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_024.vpp</v>
       </c>
-      <c r="E25" s="6" t="str">
+      <c r="E25" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_024.json</v>
       </c>
-      <c r="F25" s="6" t="str">
+      <c r="F25" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_024.ttl</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -1416,25 +1488,137 @@
       <c r="B26" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="6" t="str">
+      <c r="C26" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_025</v>
       </c>
-      <c r="D26" s="6" t="str">
+      <c r="D26" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_025.vpp</v>
       </c>
-      <c r="E26" s="6" t="str">
+      <c r="E26" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_025.json</v>
       </c>
-      <c r="F26" s="6" t="str">
+      <c r="F26" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_025.ttl</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="6" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_026</v>
+      </c>
+      <c r="D27" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_026.vpp</v>
+      </c>
+      <c r="E27" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_026.json</v>
+      </c>
+      <c r="F27" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_026.ttl</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="6" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_027</v>
+      </c>
+      <c r="D28" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_027.vpp</v>
+      </c>
+      <c r="E28" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_027.json</v>
+      </c>
+      <c r="F28" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_027.ttl</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="6" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_028</v>
+      </c>
+      <c r="D29" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_028.vpp</v>
+      </c>
+      <c r="E29" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_028.json</v>
+      </c>
+      <c r="F29" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_028.ttl</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="6" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_029</v>
+      </c>
+      <c r="D30" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_029.vpp</v>
+      </c>
+      <c r="E30" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_029.json</v>
+      </c>
+      <c r="F30" s="6" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_029.ttl</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
@@ -1467,19 +1651,19 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A26">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+  <conditionalFormatting sqref="A2:A30">
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H26">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+  <conditionalFormatting sqref="G2:H30">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H26" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H30" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
       <formula1>"Done,TBD"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5042CFCA-7A0C-470A-9782-9908781A04B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B1FB00-7BF7-4EF8-B60F-825DAE96A0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>#</t>
   </si>
@@ -135,22 +135,13 @@
     <t>022 + multiple different properties for attributes</t>
   </si>
   <si>
-    <t>add generalization</t>
-  </si>
-  <si>
     <t>add relation</t>
   </si>
   <si>
-    <t>add enumerations</t>
-  </si>
-  <si>
     <t>add subsets and redefines to properties</t>
   </si>
   <si>
     <t>add stereotypes for properties</t>
-  </si>
-  <si>
-    <t>add text box, notes, and comments</t>
   </si>
   <si>
     <t>023 + added attributes's stereotypes (single, valid, invalid, multiple, etc.) and meta-properties</t>
@@ -783,7 +774,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1459,7 +1450,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C25" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1486,7 +1477,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C26" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1513,7 +1504,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C27" s="6" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1542,7 +1533,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C28" s="6" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1571,7 +1562,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C29" s="6" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1589,7 +1580,9 @@
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_028.ttl</v>
       </c>
-      <c r="G29" s="6"/>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
@@ -1598,7 +1591,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C30" s="6" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1622,32 +1615,17 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B1FB00-7BF7-4EF8-B60F-825DAE96A0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8611B5A-DCC9-42DC-9EA8-94758D469F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -135,15 +135,6 @@
     <t>022 + multiple different properties for attributes</t>
   </si>
   <si>
-    <t>add relation</t>
-  </si>
-  <si>
-    <t>add subsets and redefines to properties</t>
-  </si>
-  <si>
-    <t>add stereotypes for properties</t>
-  </si>
-  <si>
     <t>023 + added attributes's stereotypes (single, valid, invalid, multiple, etc.) and meta-properties</t>
   </si>
   <si>
@@ -160,6 +151,24 @@
   </si>
   <si>
     <t>027 + diverse different generalization sets</t>
+  </si>
+  <si>
+    <t>030 + association ends, cardinalities</t>
+  </si>
+  <si>
+    <t>multiple associations, aggregation, compositions</t>
+  </si>
+  <si>
+    <t>031 + association stereotypes</t>
+  </si>
+  <si>
+    <t>03 + subsets and redefines</t>
+  </si>
+  <si>
+    <t>032 + metaproperties</t>
+  </si>
+  <si>
+    <t>033 + associative class</t>
   </si>
 </sst>
 </file>
@@ -169,7 +178,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +197,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -234,13 +251,103 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -449,26 +556,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I30" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A1:I30" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I36" totalsRowShown="0" headerRowDxfId="32">
+  <autoFilter ref="A1:I36" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="31"/>
     <tableColumn id="2" xr3:uid="{B2169228-FA5D-41A3-ABA5-DC9D70D992D5}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="21">
+    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="30">
       <calculatedColumnFormula>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="20">
+    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="29">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".vpp"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="19">
+    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="28">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".json"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="18">
+    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="27">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -771,22 +878,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BB1B56-C601-4BA2-9A5D-7647C7ECF9E4}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="68.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" hidden="1" customWidth="1"/>
-    <col min="4" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="73.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="68.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="73.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -815,7 +922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -845,7 +952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -875,7 +982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -905,7 +1012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -932,7 +1039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -959,7 +1066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -986,7 +1093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1013,7 +1120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1040,7 +1147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1067,7 +1174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1094,7 +1201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1121,7 +1228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1148,7 +1255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1175,7 +1282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1202,7 +1309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1229,7 +1336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1256,7 +1363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1283,7 +1390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1310,7 +1417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1337,7 +1444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1364,7 +1471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1391,7 +1498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1418,7 +1525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1445,12 +1552,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C25" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1472,12 +1579,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C26" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -1499,149 +1606,293 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="6" t="str">
+        <v>38</v>
+      </c>
+      <c r="C27" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_026</v>
       </c>
-      <c r="D27" s="6" t="str">
+      <c r="D27" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_026.vpp</v>
       </c>
-      <c r="E27" s="6" t="str">
+      <c r="E27" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_026.json</v>
       </c>
-      <c r="F27" s="6" t="str">
+      <c r="F27" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_026.ttl</v>
       </c>
       <c r="G27" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="6" t="str">
+        <v>39</v>
+      </c>
+      <c r="C28" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_027</v>
       </c>
-      <c r="D28" s="6" t="str">
+      <c r="D28" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_027.vpp</v>
       </c>
-      <c r="E28" s="6" t="str">
+      <c r="E28" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_027.json</v>
       </c>
-      <c r="F28" s="6" t="str">
+      <c r="F28" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_027.ttl</v>
       </c>
       <c r="G28" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="6" t="str">
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_028</v>
       </c>
-      <c r="D29" s="6" t="str">
+      <c r="D29" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_028.vpp</v>
       </c>
-      <c r="E29" s="6" t="str">
+      <c r="E29" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_028.json</v>
       </c>
-      <c r="F29" s="6" t="str">
+      <c r="F29" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_028.ttl</v>
       </c>
       <c r="G29" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_029</v>
+      </c>
+      <c r="D30" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_029.vpp</v>
+      </c>
+      <c r="E30" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_029.json</v>
+      </c>
+      <c r="F30" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_029.ttl</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_030</v>
+      </c>
+      <c r="D31" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_030.vpp</v>
+      </c>
+      <c r="E31" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_030.json</v>
+      </c>
+      <c r="F31" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_030.ttl</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_031</v>
+      </c>
+      <c r="D32" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_031.vpp</v>
+      </c>
+      <c r="E32" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_031.json</v>
+      </c>
+      <c r="F32" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_031.ttl</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="6" t="str">
-        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
-        <v>test_029</v>
-      </c>
-      <c r="D30" s="6" t="str">
-        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
-        <v>test_029.vpp</v>
-      </c>
-      <c r="E30" s="6" t="str">
-        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
-        <v>test_029.json</v>
-      </c>
-      <c r="F30" s="6" t="str">
-        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
-        <v>test_029.ttl</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C33" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_032</v>
+      </c>
+      <c r="D33" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_032.vpp</v>
+      </c>
+      <c r="E33" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_032.json</v>
+      </c>
+      <c r="F33" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_032.ttl</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
       <c r="B34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="C34" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_033</v>
+      </c>
+      <c r="D34" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_033.vpp</v>
+      </c>
+      <c r="E34" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_033.json</v>
+      </c>
+      <c r="F34" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_033.ttl</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
       <c r="B35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>36</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C35" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_034</v>
+      </c>
+      <c r="D35" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_034.vpp</v>
+      </c>
+      <c r="E35" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_034.json</v>
+      </c>
+      <c r="F35" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_034.ttl</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_035</v>
+      </c>
+      <c r="D36" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_035.vpp</v>
+      </c>
+      <c r="E36" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_035.json</v>
+      </c>
+      <c r="F36" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_035.ttl</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A30">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+  <conditionalFormatting sqref="A2:A36">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H30">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+  <conditionalFormatting sqref="G2:H36">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H30" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H36" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
       <formula1>"Done,TBD"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8611B5A-DCC9-42DC-9EA8-94758D469F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34504AEF-226B-4325-9F1D-FF80E4D01ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>#</t>
   </si>
@@ -162,13 +162,19 @@
     <t>031 + association stereotypes</t>
   </si>
   <si>
-    <t>03 + subsets and redefines</t>
-  </si>
-  <si>
     <t>032 + metaproperties</t>
   </si>
   <si>
     <t>033 + associative class</t>
+  </si>
+  <si>
+    <t>add constraints?</t>
+  </si>
+  <si>
+    <t>034 + subsets and redefines</t>
+  </si>
+  <si>
+    <t>ternary associations</t>
   </si>
 </sst>
 </file>
@@ -178,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,14 +203,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -237,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -251,223 +249,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -556,26 +343,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I36" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I36" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:I36" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{B2169228-FA5D-41A3-ABA5-DC9D70D992D5}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="30">
+    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="9">
       <calculatedColumnFormula>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="29">
+    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="8">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".vpp"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="28">
+    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="7">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".json"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="27">
+    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="6">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -880,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BB1B56-C601-4BA2-9A5D-7647C7ECF9E4}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,7 +1123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1363,7 +1150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1390,7 +1177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1417,7 +1204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1444,7 +1231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1471,7 +1258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1498,7 +1285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1525,7 +1312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1552,7 +1339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1579,7 +1366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1606,7 +1393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1633,7 +1420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1660,7 +1447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1687,7 +1474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1714,180 +1501,172 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="5" t="str">
+      <c r="C31" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_030</v>
       </c>
-      <c r="D31" s="5" t="str">
+      <c r="D31" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_030.vpp</v>
       </c>
-      <c r="E31" s="5" t="str">
+      <c r="E31" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_030.json</v>
       </c>
-      <c r="F31" s="5" t="str">
+      <c r="F31" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_030.ttl</v>
       </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="5" t="str">
+      <c r="C32" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_031</v>
       </c>
-      <c r="D32" s="5" t="str">
+      <c r="D32" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_031.vpp</v>
       </c>
-      <c r="E32" s="5" t="str">
+      <c r="E32" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_031.json</v>
       </c>
-      <c r="F32" s="5" t="str">
+      <c r="F32" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_031.ttl</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="5" t="str">
+      <c r="C33" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_032</v>
       </c>
-      <c r="D33" s="5" t="str">
+      <c r="D33" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_032.vpp</v>
       </c>
-      <c r="E33" s="5" t="str">
+      <c r="E33" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_032.json</v>
       </c>
-      <c r="F33" s="5" t="str">
+      <c r="F33" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_032.ttl</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="5" t="str">
+        <v>45</v>
+      </c>
+      <c r="C34" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_033</v>
       </c>
-      <c r="D34" s="5" t="str">
+      <c r="D34" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_033.vpp</v>
       </c>
-      <c r="E34" s="5" t="str">
+      <c r="E34" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_033.json</v>
       </c>
-      <c r="F34" s="5" t="str">
+      <c r="F34" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_033.ttl</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="5" t="str">
+        <v>46</v>
+      </c>
+      <c r="C35" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_034</v>
       </c>
-      <c r="D35" s="5" t="str">
+      <c r="D35" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_034.vpp</v>
       </c>
-      <c r="E35" s="5" t="str">
+      <c r="E35" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_034.json</v>
       </c>
-      <c r="F35" s="5" t="str">
+      <c r="F35" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_034.ttl</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="5" t="str">
+        <v>48</v>
+      </c>
+      <c r="C36" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_035</v>
       </c>
-      <c r="D36" s="5" t="str">
+      <c r="D36" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_035.vpp</v>
       </c>
-      <c r="E36" s="5" t="str">
+      <c r="E36" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_035.json</v>
       </c>
-      <c r="F36" s="5" t="str">
+      <c r="F36" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_035.ttl</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A36">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H36">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34504AEF-226B-4325-9F1D-FF80E4D01ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BBB9D8-5BC3-4866-8273-0CF4450045D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
+    <sheet name="Vocabulary" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="201">
   <si>
     <t>#</t>
   </si>
@@ -175,6 +176,459 @@
   </si>
   <si>
     <t>ternary associations</t>
+  </si>
+  <si>
+    <t>yCoordinate</t>
+  </si>
+  <si>
+    <t>xCoordinate</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>upperBound</t>
+  </si>
+  <si>
+    <t>topLeftPosition</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>targetView</t>
+  </si>
+  <si>
+    <t>targetEnd</t>
+  </si>
+  <si>
+    <t>subsetsProperty</t>
+  </si>
+  <si>
+    <t>specific</t>
+  </si>
+  <si>
+    <t>sourceView</t>
+  </si>
+  <si>
+    <t>sourceEnd</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>RelationView</t>
+  </si>
+  <si>
+    <t>relationEnd</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>redefinesProperty</t>
+  </si>
+  <si>
+    <t>Rectangle</t>
+  </si>
+  <si>
+    <t>propertyType</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>typeNature</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>lowerBound</t>
+  </si>
+  <si>
+    <t>stereotype</t>
+  </si>
+  <si>
+    <t>triggers</t>
+  </si>
+  <si>
+    <t>Literal</t>
+  </si>
+  <si>
+    <t>termination</t>
+  </si>
+  <si>
+    <t>literal</t>
+  </si>
+  <si>
+    <t>subQuantityOf</t>
+  </si>
+  <si>
+    <t>isViewOf</t>
+  </si>
+  <si>
+    <t>subkind</t>
+  </si>
+  <si>
+    <t>isReadOnly</t>
+  </si>
+  <si>
+    <t>subCollectionOf</t>
+  </si>
+  <si>
+    <t>isPowertype</t>
+  </si>
+  <si>
+    <t>restrictedTo</t>
+  </si>
+  <si>
+    <t>situationNature</t>
+  </si>
+  <si>
+    <t>isOrdered</t>
+  </si>
+  <si>
+    <t>situation</t>
+  </si>
+  <si>
+    <t>isExtensional</t>
+  </si>
+  <si>
+    <t>shared</t>
+  </si>
+  <si>
+    <t>isDisjoint</t>
+  </si>
+  <si>
+    <t>roleMixin</t>
+  </si>
+  <si>
+    <t>isDerived</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>isComplete</t>
+  </si>
+  <si>
+    <t>relatorNature</t>
+  </si>
+  <si>
+    <t>isAbstract</t>
+  </si>
+  <si>
+    <t>relator</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>quantityNature</t>
+  </si>
+  <si>
+    <t>GeneralizationView</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>GeneralizationSetView</t>
+  </si>
+  <si>
+    <t>qualityNature</t>
+  </si>
+  <si>
+    <t>GeneralizationSet</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>Generalization</t>
+  </si>
+  <si>
+    <t>phaseMixin</t>
+  </si>
+  <si>
+    <t>generalization</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>participational</t>
+  </si>
+  <si>
+    <t>Diagram</t>
+  </si>
+  <si>
+    <t>participation</t>
+  </si>
+  <si>
+    <t>diagram</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>containsView</t>
+  </si>
+  <si>
+    <t>mixin</t>
+  </si>
+  <si>
+    <t>containsModelElement</t>
+  </si>
+  <si>
+    <t>memberOf</t>
+  </si>
+  <si>
+    <t>CollectiveClass</t>
+  </si>
+  <si>
+    <t>mediation</t>
+  </si>
+  <si>
+    <t>ClassView</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>manifestation</t>
+  </si>
+  <si>
+    <t>cardinalityValue</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>Cardinality</t>
+  </si>
+  <si>
+    <t>intrinsicModeNature</t>
+  </si>
+  <si>
+    <t>cardinality</t>
+  </si>
+  <si>
+    <t>instantiation</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>historicalRoleMixin</t>
+  </si>
+  <si>
+    <t>Stereotype</t>
+  </si>
+  <si>
+    <t>historicalRole</t>
+  </si>
+  <si>
+    <t>historicalDependence</t>
+  </si>
+  <si>
+    <t>functionalComplexNature</t>
+  </si>
+  <si>
+    <t>AggregationKind</t>
+  </si>
+  <si>
+    <t>extrinsicModeNature</t>
+  </si>
+  <si>
+    <t>aggregationKind</t>
+  </si>
+  <si>
+    <t>externalDependence</t>
+  </si>
+  <si>
+    <t>eventNature</t>
+  </si>
+  <si>
+    <t>RelationStereotype</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>RectangularShape</t>
+  </si>
+  <si>
+    <t>enumeration</t>
+  </si>
+  <si>
+    <t>PropertyStereotype</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>PackageView</t>
+  </si>
+  <si>
+    <t>derivation</t>
+  </si>
+  <si>
+    <t>OntoumlElement</t>
+  </si>
+  <si>
+    <t>datatype</t>
+  </si>
+  <si>
+    <t>OntologicalNature</t>
+  </si>
+  <si>
+    <t>creation</t>
+  </si>
+  <si>
+    <t>NodeView</t>
+  </si>
+  <si>
+    <t>composite</t>
+  </si>
+  <si>
+    <t>ModelView</t>
+  </si>
+  <si>
+    <t>componentOf</t>
+  </si>
+  <si>
+    <t>ModelElement</t>
+  </si>
+  <si>
+    <t>comparative</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>collectiveNature</t>
+  </si>
+  <si>
+    <t>ElementView</t>
+  </si>
+  <si>
+    <t>collective</t>
+  </si>
+  <si>
+    <t>DiagramElement</t>
+  </si>
+  <si>
+    <t>characterization</t>
+  </si>
+  <si>
+    <t>DecoratableElement</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>contents</t>
+  </si>
+  <si>
+    <t>bringsAbout</t>
+  </si>
+  <si>
+    <t>ConnectorView</t>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>ClassStereotype</t>
+  </si>
+  <si>
+    <t>abstractNature</t>
+  </si>
+  <si>
+    <t>Classifier</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>categorizer</t>
+  </si>
+  <si>
+    <t>Individuals</t>
+  </si>
+  <si>
+    <t>Exists and used</t>
+  </si>
+  <si>
+    <t>EXISTS</t>
+  </si>
+  <si>
+    <t>Used and exists</t>
+  </si>
+  <si>
+    <t>USED</t>
+  </si>
+  <si>
+    <t>Justified</t>
+  </si>
+  <si>
+    <t>Exists in metamodel, never used</t>
+  </si>
+  <si>
+    <t>Does not exist in metamodel. Delete.</t>
   </si>
 </sst>
 </file>
@@ -235,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -249,12 +703,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -284,6 +747,22 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -343,28 +822,69 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I36" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I36" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="A1:I36" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{B2169228-FA5D-41A3-ABA5-DC9D70D992D5}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="9">
+    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="13">
       <calculatedColumnFormula>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="12">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".vpp"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="11">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".json"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="10">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{97C13C87-9797-4350-923D-77487660DE1A}" name="Tabela1" displayName="Tabela1" ref="A1:B66" totalsRowShown="0">
+  <autoFilter ref="A1:B66" xr:uid="{88DCFEC6-8E1A-4F00-80F3-4B8E00C98104}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{4BBB0CEF-AE77-44B8-B4E4-835459C6A400}" name="USED"/>
+    <tableColumn id="2" xr3:uid="{605D6E5A-92F1-4F24-9A6C-40690742E0DF}" name="Used and exists" dataDxfId="6">
+      <calculatedColumnFormula>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{10A79C6F-2BCC-4B1E-9844-7CE066309C31}" name="Tabela2" displayName="Tabela2" ref="D1:G87" totalsRowShown="0">
+  <autoFilter ref="D1:G87" xr:uid="{E260B55D-A2FD-4552-B729-2EFABFC3504F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:G87">
+    <sortCondition ref="F1:F87"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{33CEF012-F496-4BF4-82E7-578E21A4612F}" name="EXISTS"/>
+    <tableColumn id="2" xr3:uid="{423088D0-C022-4C9D-9FB6-40EAA00E6D27}" name="Exists and used" dataDxfId="5">
+      <calculatedColumnFormula>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{24760A67-946D-489B-878D-8394454EE873}" name="Justified"/>
+    <tableColumn id="4" xr3:uid="{A40DCA38-0B63-4871-B26A-E90BC16F5A01}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9A895E47-C376-4850-980D-AEA9BBAE3A6C}" name="Tabela3" displayName="Tabela3" ref="I1:I57" totalsRowShown="0">
+  <autoFilter ref="I1:I57" xr:uid="{52F1303E-B1B5-43EE-83E4-2613FDD4B24D}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{289B5308-D60E-494A-A236-12EB9CC6A170}" name="Individuals"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -665,9 +1185,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BB1B56-C601-4BA2-9A5D-7647C7ECF9E4}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -1654,19 +2177,19 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
+      <c r="B40" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A36">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H36">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1681,4 +2204,1725 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E8015D-70E4-4561-9D63-5F9892BDE454}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:I87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>73</v>
+      </c>
+      <c r="E64">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66">
+        <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>71</v>
+      </c>
+      <c r="E66">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>67</v>
+      </c>
+      <c r="E70">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>65</v>
+      </c>
+      <c r="E72">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>63</v>
+      </c>
+      <c r="E74">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>62</v>
+      </c>
+      <c r="E75">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>61</v>
+      </c>
+      <c r="E76">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>60</v>
+      </c>
+      <c r="E77">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>58</v>
+      </c>
+      <c r="E79">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>57</v>
+      </c>
+      <c r="E80">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>56</v>
+      </c>
+      <c r="E81">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>55</v>
+      </c>
+      <c r="E82">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>54</v>
+      </c>
+      <c r="E83">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>53</v>
+      </c>
+      <c r="E84">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>51</v>
+      </c>
+      <c r="E86">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>50</v>
+      </c>
+      <c r="E87">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F2:F87">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BBB9D8-5BC3-4866-8273-0CF4450045D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DB05FA-6347-40A7-A789-9AB23EAC9F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DB05FA-6347-40A7-A789-9AB23EAC9F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C93CDB9-970C-42FC-9E99-CF32E971F57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="199">
   <si>
     <t>#</t>
   </si>
@@ -169,15 +169,9 @@
     <t>033 + associative class</t>
   </si>
   <si>
-    <t>add constraints?</t>
-  </si>
-  <si>
     <t>034 + subsets and redefines</t>
   </si>
   <si>
-    <t>ternary associations</t>
-  </si>
-  <si>
     <t>yCoordinate</t>
   </si>
   <si>
@@ -556,9 +550,6 @@
     <t>comparative</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>collectiveNature</t>
   </si>
   <si>
@@ -629,6 +620,9 @@
   </si>
   <si>
     <t>Does not exist in metamodel. Delete.</t>
+  </si>
+  <si>
+    <t>035 + operations, constraints, ternary association, package inside diagram and package inside package</t>
   </si>
 </sst>
 </file>
@@ -689,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -703,11 +697,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -725,16 +750,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -822,26 +837,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I36" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="A1:I36" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I37" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:I37" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{B2169228-FA5D-41A3-ABA5-DC9D70D992D5}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="13">
+    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="15">
       <calculatedColumnFormula>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="12">
+    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="14">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".vpp"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="13">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".json"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="12">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -852,7 +867,7 @@
   <autoFilter ref="A1:B66" xr:uid="{88DCFEC6-8E1A-4F00-80F3-4B8E00C98104}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4BBB0CEF-AE77-44B8-B4E4-835459C6A400}" name="USED"/>
-    <tableColumn id="2" xr3:uid="{605D6E5A-92F1-4F24-9A6C-40690742E0DF}" name="Used and exists" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{605D6E5A-92F1-4F24-9A6C-40690742E0DF}" name="Used and exists" dataDxfId="8">
       <calculatedColumnFormula>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -861,14 +876,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{10A79C6F-2BCC-4B1E-9844-7CE066309C31}" name="Tabela2" displayName="Tabela2" ref="D1:G87" totalsRowShown="0">
-  <autoFilter ref="D1:G87" xr:uid="{E260B55D-A2FD-4552-B729-2EFABFC3504F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:G87">
-    <sortCondition ref="F1:F87"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{10A79C6F-2BCC-4B1E-9844-7CE066309C31}" name="Tabela2" displayName="Tabela2" ref="D1:G86" totalsRowShown="0">
+  <autoFilter ref="D1:G86" xr:uid="{E260B55D-A2FD-4552-B729-2EFABFC3504F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:G86">
+    <sortCondition ref="F1:F86"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{33CEF012-F496-4BF4-82E7-578E21A4612F}" name="EXISTS"/>
-    <tableColumn id="2" xr3:uid="{423088D0-C022-4C9D-9FB6-40EAA00E6D27}" name="Exists and used" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{423088D0-C022-4C9D-9FB6-40EAA00E6D27}" name="Exists and used" dataDxfId="7">
       <calculatedColumnFormula>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{24760A67-946D-489B-878D-8394454EE873}" name="Justified"/>
@@ -1188,10 +1203,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2074,8 +2089,11 @@
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_031.ttl</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2098,8 +2116,11 @@
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_032.ttl</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2122,8 +2143,11 @@
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_033.ttl</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2146,13 +2170,16 @@
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_034.ttl</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
@@ -2170,31 +2197,51 @@
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_035.ttl</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>49</v>
-      </c>
+      <c r="G36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_036</v>
+      </c>
+      <c r="D37" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_036.vpp</v>
+      </c>
+      <c r="E37" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_036.json</v>
+      </c>
+      <c r="F37" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_036.ttl</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A36">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  <conditionalFormatting sqref="A2:A37">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H36">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="G2:H37">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H36" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H37" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
       <formula1>"Done,TBD"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2211,10 +2258,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,37 +2276,37 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" t="s">
         <v>195</v>
-      </c>
-      <c r="E1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" t="s">
-        <v>198</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E2">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2268,20 +2315,23 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2" t="s">
+        <v>197</v>
+      </c>
       <c r="I2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E3">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2291,47 +2341,44 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B4">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="E4">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>199</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B5">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E5">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2341,19 +2388,19 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B6">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E6">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2363,19 +2410,19 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B7">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="E7">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2385,19 +2432,19 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B8">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="E8">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2407,19 +2454,19 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B9">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E9">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2429,19 +2476,19 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B10">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E10">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2451,19 +2498,19 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B11">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="E11">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2473,19 +2520,19 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B12">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E12">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2495,19 +2542,19 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E13">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2517,19 +2564,19 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B14">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E14">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2539,19 +2586,19 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B15">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E15">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2561,19 +2608,19 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B16">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E16">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2583,19 +2630,19 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B17">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="E17">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2605,19 +2652,19 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B18">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E18">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2627,41 +2674,41 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B19">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E19">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B20">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E20">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2671,19 +2718,19 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B21">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="E21">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2693,19 +2740,19 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E22">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2715,19 +2762,19 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B23">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="E23">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2737,19 +2784,19 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B24">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E24">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2759,19 +2806,19 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B25">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E25">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2781,19 +2828,19 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B26">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E26">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2803,19 +2850,19 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B27">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E27">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2825,19 +2872,19 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B28">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E28">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2847,19 +2894,19 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B29">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E29">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2869,19 +2916,19 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B30">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E30">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2891,19 +2938,19 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B31">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E31">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2913,19 +2960,19 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B32">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E32">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2935,19 +2982,19 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B33">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E33">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2957,19 +3004,19 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B34">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E34">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -2979,19 +3026,19 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B35">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E35">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3001,19 +3048,19 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B36">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E36">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3023,19 +3070,19 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E37">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3045,19 +3092,19 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E38">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3067,19 +3114,19 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B39">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E39">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3089,19 +3136,19 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B40">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E40">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3111,19 +3158,19 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B41">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E41">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3133,19 +3180,19 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B42">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E42">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3155,19 +3202,19 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B43">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E43">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3177,19 +3224,19 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B44">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E44">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3199,19 +3246,19 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E45">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3221,19 +3268,19 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B46">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E46">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3243,19 +3290,19 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B47">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E47">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3265,19 +3312,19 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E48">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3287,19 +3334,19 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B49">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E49">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3309,41 +3356,41 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B50">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
         <v>96</v>
-      </c>
-      <c r="E50">
-        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="I50" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B51">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E51">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3353,19 +3400,19 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E52">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3375,19 +3422,19 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B53">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E53">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3397,19 +3444,19 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E54">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3419,41 +3466,41 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55">
+        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
         <v>85</v>
-      </c>
-      <c r="E55">
-        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="I55" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B56">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E56">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3463,19 +3510,19 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E57">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3485,19 +3532,19 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E58">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3509,14 +3556,14 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B59">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E59">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3528,14 +3575,14 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B60">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E60">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3547,14 +3594,14 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B61">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E61">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3566,14 +3613,14 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B62">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E62">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3585,14 +3632,14 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B63">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E63">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3604,14 +3651,14 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B64">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E64">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3623,14 +3670,14 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B65">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E65">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3642,14 +3689,14 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B66">
         <f>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E66">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3661,7 +3708,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E67">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3673,7 +3720,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E68">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3685,7 +3732,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E69">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3697,7 +3744,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E70">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3709,7 +3756,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E71">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3721,7 +3768,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E72">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3733,7 +3780,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E73">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3745,7 +3792,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E74">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3757,7 +3804,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E75">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3769,7 +3816,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E76">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3781,7 +3828,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E77">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3793,7 +3840,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E78">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3805,7 +3852,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E79">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3817,7 +3864,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E80">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3829,7 +3876,7 @@
     </row>
     <row r="81" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E81">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3841,7 +3888,7 @@
     </row>
     <row r="82" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E82">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3853,7 +3900,7 @@
     </row>
     <row r="83" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E83">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3865,7 +3912,7 @@
     </row>
     <row r="84" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E84">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3877,7 +3924,7 @@
     </row>
     <row r="85" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E85">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3889,7 +3936,7 @@
     </row>
     <row r="86" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E86">
         <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
@@ -3899,21 +3946,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
-        <v>50</v>
-      </c>
-      <c r="E87">
-        <f>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F87">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:F86">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C93CDB9-970C-42FC-9E99-CF32E971F57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1586BB-1530-44CB-B98A-D4A1700743C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Vocabulary" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="204">
   <si>
     <t>#</t>
   </si>
@@ -623,6 +624,21 @@
   </si>
   <si>
     <t>035 + operations, constraints, ternary association, package inside diagram and package inside package</t>
+  </si>
+  <si>
+    <t>only package inside diagram</t>
+  </si>
+  <si>
+    <t>037 + class inside package that is inside diagram</t>
+  </si>
+  <si>
+    <t>038 + package inside package that is inside diagram</t>
+  </si>
+  <si>
+    <t>039 + class inside package that is inside another package that is inside diagram</t>
+  </si>
+  <si>
+    <t>040 + diagram inside the class from 040</t>
   </si>
 </sst>
 </file>
@@ -837,8 +853,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I37" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:I37" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I42" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:I42" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{B2169228-FA5D-41A3-ABA5-DC9D70D992D5}" name="Description"/>
@@ -1203,10 +1219,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2208,31 +2224,154 @@
       <c r="B37" t="s">
         <v>198</v>
       </c>
-      <c r="C37" s="5" t="str">
+      <c r="C37" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_036</v>
       </c>
-      <c r="D37" s="5" t="str">
+      <c r="D37" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_036.vpp</v>
       </c>
-      <c r="E37" s="5" t="str">
+      <c r="E37" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_036.json</v>
       </c>
-      <c r="F37" s="5" t="str">
+      <c r="F37" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_036.ttl</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_037</v>
+      </c>
+      <c r="D38" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_037.vpp</v>
+      </c>
+      <c r="E38" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_037.json</v>
+      </c>
+      <c r="F38" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_037.ttl</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_038</v>
+      </c>
+      <c r="D39" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_038.vpp</v>
+      </c>
+      <c r="E39" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_038.json</v>
+      </c>
+      <c r="F39" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_038.ttl</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_039</v>
+      </c>
+      <c r="D40" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_039.vpp</v>
+      </c>
+      <c r="E40" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_039.json</v>
+      </c>
+      <c r="F40" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_039.ttl</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_040</v>
+      </c>
+      <c r="D41" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_040.vpp</v>
+      </c>
+      <c r="E41" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_040.json</v>
+      </c>
+      <c r="F41" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_040.ttl</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_041</v>
+      </c>
+      <c r="D42" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_041.vpp</v>
+      </c>
+      <c r="E42" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_041.json</v>
+      </c>
+      <c r="F42" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_041.ttl</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A37">
+  <conditionalFormatting sqref="A2:A42">
     <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H37">
+  <conditionalFormatting sqref="G2:H42">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
@@ -2241,7 +2380,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H37" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H42" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
       <formula1>"Done,TBD"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1586BB-1530-44CB-B98A-D4A1700743C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDB9E13-D8F6-4C05-9C3A-05C7BBFE516B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="204">
   <si>
     <t>#</t>
   </si>
@@ -1222,7 +1222,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2267,6 +2267,9 @@
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_037.ttl</v>
       </c>
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -2291,6 +2294,9 @@
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_038.ttl</v>
       </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -2315,6 +2321,9 @@
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_039.ttl</v>
       </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -2339,6 +2348,9 @@
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_040.ttl</v>
       </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -2363,7 +2375,9 @@
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_041.ttl</v>
       </c>
-      <c r="G42" s="5"/>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDB9E13-D8F6-4C05-9C3A-05C7BBFE516B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC7F9D7-6801-4437-954C-E6BDD4E28F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Vocabulary" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="209">
   <si>
     <t>#</t>
   </si>
@@ -639,6 +638,21 @@
   </si>
   <si>
     <t>040 + diagram inside the class from 040</t>
+  </si>
+  <si>
+    <t>017 + language tag</t>
+  </si>
+  <si>
+    <t>025 + language tag</t>
+  </si>
+  <si>
+    <t>029 + language tag</t>
+  </si>
+  <si>
+    <t>036 + language tag</t>
+  </si>
+  <si>
+    <t>041 + language tag</t>
   </si>
 </sst>
 </file>
@@ -718,7 +732,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="21">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -811,12 +825,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i/>
@@ -839,6 +847,42 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -853,26 +897,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I42" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:I42" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I47" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="A1:I47" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{B2169228-FA5D-41A3-ABA5-DC9D70D992D5}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="15">
+    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="13">
       <calculatedColumnFormula>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="14">
+    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="12">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".vpp"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="13">
+    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="11">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".json"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="12">
+    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="10">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -883,7 +927,7 @@
   <autoFilter ref="A1:B66" xr:uid="{88DCFEC6-8E1A-4F00-80F3-4B8E00C98104}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4BBB0CEF-AE77-44B8-B4E4-835459C6A400}" name="USED"/>
-    <tableColumn id="2" xr3:uid="{605D6E5A-92F1-4F24-9A6C-40690742E0DF}" name="Used and exists" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{605D6E5A-92F1-4F24-9A6C-40690742E0DF}" name="Used and exists" dataDxfId="20">
       <calculatedColumnFormula>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -899,7 +943,7 @@
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{33CEF012-F496-4BF4-82E7-578E21A4612F}" name="EXISTS"/>
-    <tableColumn id="2" xr3:uid="{423088D0-C022-4C9D-9FB6-40EAA00E6D27}" name="Exists and used" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{423088D0-C022-4C9D-9FB6-40EAA00E6D27}" name="Exists and used" dataDxfId="19">
       <calculatedColumnFormula>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{24760A67-946D-489B-878D-8394454EE873}" name="Justified"/>
@@ -1219,10 +1263,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2359,33 +2403,179 @@
       <c r="B42" t="s">
         <v>203</v>
       </c>
-      <c r="C42" s="5" t="str">
+      <c r="C42" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_041</v>
       </c>
-      <c r="D42" s="5" t="str">
+      <c r="D42" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_041.vpp</v>
       </c>
-      <c r="E42" s="5" t="str">
+      <c r="E42" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_041.json</v>
       </c>
-      <c r="F42" s="5" t="str">
+      <c r="F42" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_041.ttl</v>
       </c>
       <c r="G42" t="s">
         <v>9</v>
       </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_042</v>
+      </c>
+      <c r="D43" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_042.vpp</v>
+      </c>
+      <c r="E43" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_042.json</v>
+      </c>
+      <c r="F43" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_042.ttl</v>
+      </c>
+      <c r="G43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_043</v>
+      </c>
+      <c r="D44" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_043.vpp</v>
+      </c>
+      <c r="E44" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_043.json</v>
+      </c>
+      <c r="F44" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_043.ttl</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_044</v>
+      </c>
+      <c r="D45" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_044.vpp</v>
+      </c>
+      <c r="E45" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_044.json</v>
+      </c>
+      <c r="F45" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_044.ttl</v>
+      </c>
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_045</v>
+      </c>
+      <c r="D46" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_045.vpp</v>
+      </c>
+      <c r="E46" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_045.json</v>
+      </c>
+      <c r="F46" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_045.ttl</v>
+      </c>
+      <c r="G46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_046</v>
+      </c>
+      <c r="D47" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_046.vpp</v>
+      </c>
+      <c r="E47" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_046.json</v>
+      </c>
+      <c r="F47" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_046.ttl</v>
+      </c>
+      <c r="G47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A42">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D58:D62">
+    <sortCondition ref="D58:D62"/>
+  </sortState>
+  <conditionalFormatting sqref="A2:A47">
     <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H42">
+  <conditionalFormatting sqref="G2:H47">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
@@ -2394,7 +2584,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H42" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H47" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
       <formula1>"Done,TBD"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC7F9D7-6801-4437-954C-E6BDD4E28F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8713253-DD9F-4552-9DB7-41111B332A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="210">
   <si>
     <t>#</t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t>041 + language tag</t>
+  </si>
+  <si>
+    <t>amaral2022ethical-requirements</t>
   </si>
 </sst>
 </file>
@@ -732,7 +735,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -825,6 +828,12 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i/>
@@ -847,42 +856,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -897,26 +870,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I47" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="A1:I47" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I48" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:I48" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{B2169228-FA5D-41A3-ABA5-DC9D70D992D5}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="13">
+    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="15">
       <calculatedColumnFormula>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="12">
+    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="14">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".vpp"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="13">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".json"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="12">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -927,7 +900,7 @@
   <autoFilter ref="A1:B66" xr:uid="{88DCFEC6-8E1A-4F00-80F3-4B8E00C98104}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4BBB0CEF-AE77-44B8-B4E4-835459C6A400}" name="USED"/>
-    <tableColumn id="2" xr3:uid="{605D6E5A-92F1-4F24-9A6C-40690742E0DF}" name="Used and exists" dataDxfId="20">
+    <tableColumn id="2" xr3:uid="{605D6E5A-92F1-4F24-9A6C-40690742E0DF}" name="Used and exists" dataDxfId="8">
       <calculatedColumnFormula>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -943,7 +916,7 @@
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{33CEF012-F496-4BF4-82E7-578E21A4612F}" name="EXISTS"/>
-    <tableColumn id="2" xr3:uid="{423088D0-C022-4C9D-9FB6-40EAA00E6D27}" name="Exists and used" dataDxfId="19">
+    <tableColumn id="2" xr3:uid="{423088D0-C022-4C9D-9FB6-40EAA00E6D27}" name="Exists and used" dataDxfId="7">
       <calculatedColumnFormula>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{24760A67-946D-489B-878D-8394454EE873}" name="Justified"/>
@@ -1263,10 +1236,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2430,27 +2403,25 @@
       <c r="B43" t="s">
         <v>204</v>
       </c>
-      <c r="C43" s="5" t="str">
+      <c r="C43" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_042</v>
       </c>
-      <c r="D43" s="5" t="str">
+      <c r="D43" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_042.vpp</v>
       </c>
-      <c r="E43" s="5" t="str">
+      <c r="E43" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_042.json</v>
       </c>
-      <c r="F43" s="5" t="str">
+      <c r="F43" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_042.ttl</v>
       </c>
       <c r="G43" t="s">
         <v>9</v>
       </c>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -2459,27 +2430,25 @@
       <c r="B44" t="s">
         <v>205</v>
       </c>
-      <c r="C44" s="5" t="str">
+      <c r="C44" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_043</v>
       </c>
-      <c r="D44" s="5" t="str">
+      <c r="D44" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_043.vpp</v>
       </c>
-      <c r="E44" s="5" t="str">
+      <c r="E44" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_043.json</v>
       </c>
-      <c r="F44" s="5" t="str">
+      <c r="F44" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_043.ttl</v>
       </c>
       <c r="G44" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -2488,27 +2457,25 @@
       <c r="B45" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="5" t="str">
+      <c r="C45" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_044</v>
       </c>
-      <c r="D45" s="5" t="str">
+      <c r="D45" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_044.vpp</v>
       </c>
-      <c r="E45" s="5" t="str">
+      <c r="E45" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_044.json</v>
       </c>
-      <c r="F45" s="5" t="str">
+      <c r="F45" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_044.ttl</v>
       </c>
       <c r="G45" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -2517,27 +2484,25 @@
       <c r="B46" t="s">
         <v>207</v>
       </c>
-      <c r="C46" s="5" t="str">
+      <c r="C46" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_045</v>
       </c>
-      <c r="D46" s="5" t="str">
+      <c r="D46" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_045.vpp</v>
       </c>
-      <c r="E46" s="5" t="str">
+      <c r="E46" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_045.json</v>
       </c>
-      <c r="F46" s="5" t="str">
+      <c r="F46" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_045.ttl</v>
       </c>
       <c r="G46" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -2546,36 +2511,61 @@
       <c r="B47" t="s">
         <v>208</v>
       </c>
-      <c r="C47" s="5" t="str">
+      <c r="C47" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_046</v>
       </c>
-      <c r="D47" s="5" t="str">
+      <c r="D47" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_046.vpp</v>
       </c>
-      <c r="E47" s="5" t="str">
+      <c r="E47" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_046.json</v>
       </c>
-      <c r="F47" s="5" t="str">
+      <c r="F47" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_046.ttl</v>
       </c>
       <c r="G47" t="s">
         <v>9</v>
       </c>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>209</v>
+      </c>
+      <c r="C48" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_047</v>
+      </c>
+      <c r="D48" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_047.vpp</v>
+      </c>
+      <c r="E48" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_047.json</v>
+      </c>
+      <c r="F48" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_047.ttl</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D58:D62">
     <sortCondition ref="D58:D62"/>
   </sortState>
-  <conditionalFormatting sqref="A2:A47">
+  <conditionalFormatting sqref="A2:A48">
     <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H47">
+  <conditionalFormatting sqref="G2:H48">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
@@ -2584,7 +2574,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H47" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H48" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
       <formula1>"Done,TBD"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8713253-DD9F-4552-9DB7-41111B332A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADB46F5-5B70-4245-A4E0-AE75C494A960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADB46F5-5B70-4245-A4E0-AE75C494A960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB59E648-902C-4F7A-A2BE-7D0C1EA94DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="211">
   <si>
     <t>#</t>
   </si>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>amaral2022ethical-requirements</t>
+  </si>
+  <si>
+    <t>sales2018cover</t>
   </si>
 </sst>
 </file>
@@ -870,8 +873,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I48" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:I48" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I49" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:I49" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{B2169228-FA5D-41A3-ABA5-DC9D70D992D5}" name="Description"/>
@@ -1236,10 +1239,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2126,7 +2129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2153,7 +2156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2180,7 +2183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2207,7 +2210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2234,7 +2237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2261,7 +2264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2288,7 +2291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2315,7 +2318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2342,7 +2345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2369,7 +2372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2396,7 +2399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2450,7 +2453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2477,7 +2480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2504,7 +2507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2531,41 +2534,70 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>209</v>
       </c>
-      <c r="C48" s="5" t="str">
+      <c r="C48" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_047</v>
       </c>
-      <c r="D48" s="5" t="str">
+      <c r="D48" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_047.vpp</v>
       </c>
-      <c r="E48" s="5" t="str">
+      <c r="E48" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_047.json</v>
       </c>
-      <c r="F48" s="5" t="str">
+      <c r="F48" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_047.ttl</v>
       </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
+      <c r="G48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_048</v>
+      </c>
+      <c r="D49" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_048.vpp</v>
+      </c>
+      <c r="E49" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_048.json</v>
+      </c>
+      <c r="F49" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_048.ttl</v>
+      </c>
+      <c r="G49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D58:D62">
     <sortCondition ref="D58:D62"/>
   </sortState>
-  <conditionalFormatting sqref="A2:A48">
+  <conditionalFormatting sqref="A2:A49">
     <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H48">
+  <conditionalFormatting sqref="G2:H49">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
@@ -2574,7 +2606,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H48" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H49" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
       <formula1>"Done,TBD"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB59E648-902C-4F7A-A2BE-7D0C1EA94DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E30EDDE-5C2E-43C7-B7E6-4BABD21CC148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="213">
   <si>
     <t>#</t>
   </si>
@@ -659,6 +659,12 @@
   </si>
   <si>
     <t>sales2018cover</t>
+  </si>
+  <si>
+    <t>isExtensional and isPowertype possibilites</t>
+  </si>
+  <si>
+    <t>Used to test the validation function.</t>
   </si>
 </sst>
 </file>
@@ -873,8 +879,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I49" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:I49" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I50" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:I50" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{B2169228-FA5D-41A3-ABA5-DC9D70D992D5}" name="Description"/>
@@ -1239,10 +1245,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2568,36 +2574,63 @@
       <c r="B49" t="s">
         <v>210</v>
       </c>
-      <c r="C49" s="5" t="str">
+      <c r="C49" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_048</v>
       </c>
-      <c r="D49" s="5" t="str">
+      <c r="D49" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_048.vpp</v>
       </c>
-      <c r="E49" s="5" t="str">
+      <c r="E49" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_048.json</v>
       </c>
-      <c r="F49" s="5" t="str">
+      <c r="F49" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_048.ttl</v>
       </c>
       <c r="G49" t="s">
         <v>9</v>
       </c>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_049</v>
+      </c>
+      <c r="D50" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_049.vpp</v>
+      </c>
+      <c r="E50" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_049.json</v>
+      </c>
+      <c r="F50" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_049.ttl</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5" t="s">
+        <v>212</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D58:D62">
     <sortCondition ref="D58:D62"/>
   </sortState>
-  <conditionalFormatting sqref="A2:A49">
+  <conditionalFormatting sqref="A2:A50">
     <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H49">
+  <conditionalFormatting sqref="G2:H50">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
@@ -2606,7 +2639,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H49" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H50" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
       <formula1>"Done,TBD"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E30EDDE-5C2E-43C7-B7E6-4BABD21CC148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E4964C-EF7A-471E-98E1-267186EC022F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="218">
   <si>
     <t>#</t>
   </si>
@@ -665,6 +665,21 @@
   </si>
   <si>
     <t>Used to test the validation function.</t>
+  </si>
+  <si>
+    <t>diverse attributes with diferent settings</t>
+  </si>
+  <si>
+    <t>050 manually modified substituting attributes values from true to null</t>
+  </si>
+  <si>
+    <t>050 manually modified substituting attributes values from false to null</t>
+  </si>
+  <si>
+    <t>052 manually modified substituting attributes values from true to null</t>
+  </si>
+  <si>
+    <t>Used to test "set defaults"</t>
   </si>
 </sst>
 </file>
@@ -744,7 +759,97 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -879,26 +984,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I50" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:I50" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I54" totalsRowShown="0" headerRowDxfId="26">
+  <autoFilter ref="A1:I54" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{B2169228-FA5D-41A3-ABA5-DC9D70D992D5}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="15">
+    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="24">
       <calculatedColumnFormula>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="14">
+    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="23">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".vpp"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="13">
+    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="22">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".json"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="12">
+    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="21">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -909,7 +1014,7 @@
   <autoFilter ref="A1:B66" xr:uid="{88DCFEC6-8E1A-4F00-80F3-4B8E00C98104}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4BBB0CEF-AE77-44B8-B4E4-835459C6A400}" name="USED"/>
-    <tableColumn id="2" xr3:uid="{605D6E5A-92F1-4F24-9A6C-40690742E0DF}" name="Used and exists" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{605D6E5A-92F1-4F24-9A6C-40690742E0DF}" name="Used and exists" dataDxfId="17">
       <calculatedColumnFormula>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -925,7 +1030,7 @@
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{33CEF012-F496-4BF4-82E7-578E21A4612F}" name="EXISTS"/>
-    <tableColumn id="2" xr3:uid="{423088D0-C022-4C9D-9FB6-40EAA00E6D27}" name="Exists and used" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{423088D0-C022-4C9D-9FB6-40EAA00E6D27}" name="Exists and used" dataDxfId="16">
       <calculatedColumnFormula>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{24760A67-946D-489B-878D-8394454EE873}" name="Justified"/>
@@ -1245,10 +1350,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2601,45 +2706,170 @@
       <c r="B50" t="s">
         <v>211</v>
       </c>
-      <c r="C50" s="5" t="str">
+      <c r="C50" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_049</v>
       </c>
-      <c r="D50" s="5" t="str">
+      <c r="D50" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_049.vpp</v>
       </c>
-      <c r="E50" s="5" t="str">
+      <c r="E50" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_049.json</v>
       </c>
-      <c r="F50" s="5" t="str">
+      <c r="F50" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_049.ttl</v>
       </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5" t="s">
+      <c r="G50" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>213</v>
+      </c>
+      <c r="C51" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_050</v>
+      </c>
+      <c r="D51" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_050.vpp</v>
+      </c>
+      <c r="E51" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_050.json</v>
+      </c>
+      <c r="F51" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_050.ttl</v>
+      </c>
+      <c r="G51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_051</v>
+      </c>
+      <c r="D52" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_051.vpp</v>
+      </c>
+      <c r="E52" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_051.json</v>
+      </c>
+      <c r="F52" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_051.ttl</v>
+      </c>
+      <c r="G52" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>215</v>
+      </c>
+      <c r="C53" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_052</v>
+      </c>
+      <c r="D53" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_052.vpp</v>
+      </c>
+      <c r="E53" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_052.json</v>
+      </c>
+      <c r="F53" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_052.ttl</v>
+      </c>
+      <c r="G53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54" s="5" t="str">
+        <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
+        <v>test_053</v>
+      </c>
+      <c r="D54" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
+        <v>test_053.vpp</v>
+      </c>
+      <c r="E54" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".json"</f>
+        <v>test_053.json</v>
+      </c>
+      <c r="F54" s="5" t="str">
+        <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
+        <v>test_053.ttl</v>
+      </c>
+      <c r="G54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D58:D62">
     <sortCondition ref="D58:D62"/>
   </sortState>
-  <conditionalFormatting sqref="A2:A50">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  <conditionalFormatting sqref="A2:A54">
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H50">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+  <conditionalFormatting sqref="G2:H54">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H50" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H54" xr:uid="{730C37A3-AAC7-4218-8A22-535273AF5656}">
       <formula1>"Done,TBD"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4346,7 +4576,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F86">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E4964C-EF7A-471E-98E1-267186EC022F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FB4309-A98E-4768-8E36-5FF57D92A80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="218">
   <si>
     <t>#</t>
   </si>
@@ -1353,7 +1353,7 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2783,9 +2783,6 @@
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_051.ttl</v>
       </c>
-      <c r="G52" t="s">
-        <v>9</v>
-      </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5" t="s">
         <v>217</v>
@@ -2814,9 +2811,6 @@
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_052.ttl</v>
       </c>
-      <c r="G53" t="s">
-        <v>9</v>
-      </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5" t="s">
         <v>217</v>
@@ -2844,9 +2838,6 @@
       <c r="F54" s="5" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_053.ttl</v>
-      </c>
-      <c r="G54" t="s">
-        <v>9</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5" t="s">

--- a/tests/test_files/List of Tests.xlsx
+++ b/tests/test_files/List of Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\ontouml-json2graph\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FB4309-A98E-4768-8E36-5FF57D92A80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8923A8B7-8ED4-46B2-893F-4DED6E1FFD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337D8CB5-42E6-48D8-9B41-5D7BCCB0FAFA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="218">
   <si>
     <t>#</t>
   </si>
@@ -740,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -754,132 +754,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -984,26 +863,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I54" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}" name="Table1" displayName="Table1" ref="A1:I54" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A1:I54" xr:uid="{1D241AED-850D-4E6C-B2FC-D5E7EBEE2370}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{05DE13E7-73E0-4768-BF58-1CA8491F345C}" name="#" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{B2169228-FA5D-41A3-ABA5-DC9D70D992D5}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="24">
+    <tableColumn id="6" xr3:uid="{A43D3431-0F9F-4E87-A0C5-980D3042890F}" name="Base" dataDxfId="12">
       <calculatedColumnFormula>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="23">
+    <tableColumn id="7" xr3:uid="{2CD594D4-C36F-40A0-9065-78092B5D8386}" name="VPP" dataDxfId="11">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".vpp"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="22">
+    <tableColumn id="3" xr3:uid="{1E297AAE-4CDA-48FD-8E82-AF15FBA289A4}" name="JSON" dataDxfId="10">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".json"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="21">
+    <tableColumn id="4" xr3:uid="{99F5952E-22D3-4FBD-AC8B-615FD3C9784F}" name="TTL" dataDxfId="9">
       <calculatedColumnFormula>Table1[[#This Row],[Base]]&amp;".ttl"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{76CACE86-2861-4D01-8CD1-5BDB869DC29A}" name="json2graph" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{56E522DA-3787-4AA9-AB64-4A5CAB2EB622}" name="graph2json" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{32870A57-9DC3-41D9-AEE1-E457DF450E6D}" name="Comments" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1014,7 +893,7 @@
   <autoFilter ref="A1:B66" xr:uid="{88DCFEC6-8E1A-4F00-80F3-4B8E00C98104}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4BBB0CEF-AE77-44B8-B4E4-835459C6A400}" name="USED"/>
-    <tableColumn id="2" xr3:uid="{605D6E5A-92F1-4F24-9A6C-40690742E0DF}" name="Used and exists" dataDxfId="17">
+    <tableColumn id="2" xr3:uid="{605D6E5A-92F1-4F24-9A6C-40690742E0DF}" name="Used and exists" dataDxfId="5">
       <calculatedColumnFormula>IF(ISERROR(VLOOKUP(Tabela1[[#This Row],[USED]],Tabela2[EXISTS],1,FALSE)),0,1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1030,7 +909,7 @@
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{33CEF012-F496-4BF4-82E7-578E21A4612F}" name="EXISTS"/>
-    <tableColumn id="2" xr3:uid="{423088D0-C022-4C9D-9FB6-40EAA00E6D27}" name="Exists and used" dataDxfId="16">
+    <tableColumn id="2" xr3:uid="{423088D0-C022-4C9D-9FB6-40EAA00E6D27}" name="Exists and used" dataDxfId="4">
       <calculatedColumnFormula>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[EXISTS]],Tabela1[[#All],[USED]],1,FALSE)),0,1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{24760A67-946D-489B-878D-8394454EE873}" name="Justified"/>
@@ -2736,27 +2615,26 @@
       <c r="B51" t="s">
         <v>213</v>
       </c>
-      <c r="C51" s="5" t="str">
+      <c r="C51" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_050</v>
       </c>
-      <c r="D51" s="5" t="str">
+      <c r="D51" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_050.vpp</v>
       </c>
-      <c r="E51" s="5" t="str">
+      <c r="E51" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_050.json</v>
       </c>
-      <c r="F51" s="5" t="str">
+      <c r="F51" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_050.ttl</v>
       </c>
       <c r="G51" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5" t="s">
+      <c r="I51" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2767,24 +2645,26 @@
       <c r="B52" t="s">
         <v>214</v>
       </c>
-      <c r="C52" s="5" t="str">
+      <c r="C52" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_051</v>
       </c>
-      <c r="D52" s="5" t="str">
+      <c r="D52" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_051.vpp</v>
       </c>
-      <c r="E52" s="5" t="str">
+      <c r="E52" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_051.json</v>
       </c>
-      <c r="F52" s="5" t="str">
+      <c r="F52" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_051.ttl</v>
       </c>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5" t="s">
+      <c r="G52" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2795,24 +2675,26 @@
       <c r="B53" t="s">
         <v>215</v>
       </c>
-      <c r="C53" s="5" t="str">
+      <c r="C53" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_052</v>
       </c>
-      <c r="D53" s="5" t="str">
+      <c r="D53" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_052.vpp</v>
       </c>
-      <c r="E53" s="5" t="str">
+      <c r="E53" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_052.json</v>
       </c>
-      <c r="F53" s="5" t="str">
+      <c r="F53" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_052.ttl</v>
       </c>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5" t="s">
+      <c r="G53" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2823,24 +2705,26 @@
       <c r="B54" t="s">
         <v>216</v>
       </c>
-      <c r="C54" s="5" t="str">
+      <c r="C54" t="str">
         <f>"test_"&amp;TEXT(Table1[[#This Row],['#]],"000")</f>
         <v>test_053</v>
       </c>
-      <c r="D54" s="5" t="str">
+      <c r="D54" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".vpp"</f>
         <v>test_053.vpp</v>
       </c>
-      <c r="E54" s="5" t="str">
+      <c r="E54" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".json"</f>
         <v>test_053.json</v>
       </c>
-      <c r="F54" s="5" t="str">
+      <c r="F54" t="str">
         <f>Table1[[#This Row],[Base]]&amp;".ttl"</f>
         <v>test_053.ttl</v>
       </c>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5" t="s">
+      <c r="G54" t="s">
+        <v>9</v>
+      </c>
+      <c r="I54" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2849,13 +2733,13 @@
     <sortCondition ref="D58:D62"/>
   </sortState>
   <conditionalFormatting sqref="A2:A54">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H54">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4567,7 +4451,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F86">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
